--- a/source/PART 01/CHAPTER 02/테이블-데이터형식.xlsx
+++ b/source/PART 01/CHAPTER 02/테이블-데이터형식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최준선\Desktop\CD\PART 01\CHAPTER 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3F2C37-06F2-43B6-9E8F-DD1B8BD31F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15600" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="3" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
   <si>
     <t>고객</t>
   </si>
@@ -49,18 +50,6 @@
   </si>
   <si>
     <t>9 EA</t>
-  </si>
-  <si>
-    <t>2017.01.01</t>
-  </si>
-  <si>
-    <t>2017.01.02</t>
-  </si>
-  <si>
-    <t>2017.01.05</t>
-  </si>
-  <si>
-    <t>2017.01.06</t>
   </si>
   <si>
     <t>사번</t>
@@ -284,8 +273,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -550,21 +539,21 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,7 +562,7 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,13 +574,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -600,13 +589,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -615,22 +604,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -648,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
@@ -973,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -982,36 +968,36 @@
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="8" width="14.375" customWidth="1"/>
+    <col min="6" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
@@ -1019,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="9">
         <v>42</v>
@@ -1034,10 +1020,10 @@
         <v>37755</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" s="11"/>
     </row>
@@ -1046,13 +1032,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="14">
         <v>35</v>
@@ -1061,10 +1047,10 @@
         <v>39372</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" s="16" t="b">
         <v>1</v>
@@ -1075,13 +1061,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="E4" s="19">
         <v>33</v>
@@ -1090,10 +1076,10 @@
         <v>41030</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I4" s="21"/>
     </row>
@@ -1112,27 +1098,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1144,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1163,450 +1149,450 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42736</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42736</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="29">
+        <v>1176000</v>
+      </c>
+      <c r="H2" s="29">
+        <v>3</v>
+      </c>
+      <c r="I2" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="J2" s="29">
+        <v>2998800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42736</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42736</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="29">
+        <v>48300</v>
+      </c>
+      <c r="H3" s="29">
+        <v>3</v>
+      </c>
+      <c r="I3" s="30">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42736</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42736</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="29">
+        <v>47400</v>
+      </c>
+      <c r="H4" s="29">
+        <v>3</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29">
+        <v>142200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D5" s="1">
+        <v>42737</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42737</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="29">
+        <v>17800</v>
+      </c>
+      <c r="H5" s="29">
+        <v>9</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29">
+        <v>160200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42737</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42737</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="29">
+        <v>86500</v>
+      </c>
+      <c r="H6" s="29">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <v>605500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="22">
-        <v>20170101</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="B7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42740</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42740</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="29">
+        <v>3500</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42740</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42740</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="29">
+        <v>46300</v>
+      </c>
+      <c r="H8" s="29">
+        <v>7</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>324100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42740</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42740</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="30">
-        <v>1176000</v>
-      </c>
-      <c r="H2" s="30">
+      <c r="G9" s="29">
+        <v>104500</v>
+      </c>
+      <c r="H9" s="29">
+        <v>8</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <v>836000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42740</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42740</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="29">
+        <v>79800</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42740</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42740</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="29">
+        <v>89300</v>
+      </c>
+      <c r="H11" s="29">
+        <v>8</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <v>714400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42740</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42740</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="29">
+        <v>4100</v>
+      </c>
+      <c r="H12" s="29">
+        <v>7</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <v>28700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42741</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="29">
+        <v>79500</v>
+      </c>
+      <c r="H13" s="29">
+        <v>2</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42741</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="29">
+        <v>165300</v>
+      </c>
+      <c r="H14" s="29">
         <v>3</v>
       </c>
-      <c r="I2" s="31">
-        <v>0.15</v>
-      </c>
-      <c r="J2" s="30">
-        <v>2998800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="22">
-        <v>20170101</v>
-      </c>
-      <c r="F3" s="29" t="s">
+      <c r="I14" s="30">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>495900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42741</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="30">
-        <v>48300</v>
-      </c>
-      <c r="H3" s="30">
-        <v>3</v>
-      </c>
-      <c r="I3" s="31">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
-        <v>144900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="22">
-        <v>20170101</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="30">
-        <v>47400</v>
-      </c>
-      <c r="H4" s="30">
-        <v>3</v>
-      </c>
-      <c r="I4" s="31">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <v>142200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="22">
-        <v>20170102</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="30">
-        <v>17800</v>
-      </c>
-      <c r="H5" s="30">
-        <v>9</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <v>160200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="22">
-        <v>20170102</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="30">
-        <v>86500</v>
-      </c>
-      <c r="H6" s="30">
-        <v>7</v>
-      </c>
-      <c r="I6" s="31">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <v>605500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="22">
-        <v>20170105</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="30">
-        <v>3500</v>
-      </c>
-      <c r="H7" s="30">
-        <v>2</v>
-      </c>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="22">
-        <v>20170105</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="30">
-        <v>46300</v>
-      </c>
-      <c r="H8" s="30">
-        <v>7</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>324100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20170105</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="30">
-        <v>104500</v>
-      </c>
-      <c r="H9" s="30">
+      <c r="G15" s="29">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="29">
         <v>8</v>
       </c>
-      <c r="I9" s="31">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
-        <v>836000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="22">
-        <v>20170105</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="30">
-        <v>79800</v>
-      </c>
-      <c r="H10" s="30">
-        <v>1</v>
-      </c>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <v>79800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="22">
-        <v>20170105</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="30">
-        <v>89300</v>
-      </c>
-      <c r="H11" s="30">
-        <v>8</v>
-      </c>
-      <c r="I11" s="31">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <v>714400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="22">
-        <v>20170105</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="30">
-        <v>4100</v>
-      </c>
-      <c r="H12" s="30">
-        <v>7</v>
-      </c>
-      <c r="I12" s="31">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <v>28700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="22">
-        <v>20170106</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="30">
-        <v>79500</v>
-      </c>
-      <c r="H13" s="30">
-        <v>2</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <v>159000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="22">
-        <v>20170106</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="30">
-        <v>165300</v>
-      </c>
-      <c r="H14" s="30">
-        <v>3</v>
-      </c>
-      <c r="I14" s="31">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <v>495900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="22">
-        <v>20170106</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="30">
-        <v>3600</v>
-      </c>
-      <c r="H15" s="30">
-        <v>8</v>
-      </c>
-      <c r="I15" s="31">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30">
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
         <v>28800</v>
       </c>
     </row>
@@ -1628,18 +1614,18 @@
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1660,10 +1646,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>6</v>
@@ -1673,492 +1659,492 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>43</v>
+      <c r="A2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>42736</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="30">
+      <c r="E2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="29">
         <v>1176000</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>70</v>
+      <c r="G2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="31">
+        <v>71</v>
+      </c>
+      <c r="J2" s="30">
         <v>0.15</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="29">
         <v>2998800</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>43</v>
+      <c r="A3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="2">
         <v>42736</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="30">
+      <c r="E3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="29">
         <v>48300</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>70</v>
+      <c r="G3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="31">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30">
+        <v>71</v>
+      </c>
+      <c r="J3" s="30">
+        <v>0</v>
+      </c>
+      <c r="K3" s="29">
         <v>144900</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>43</v>
+      <c r="A4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>42736</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="E4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="29">
         <v>47400</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>70</v>
+      <c r="G4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="31">
-        <v>0</v>
-      </c>
-      <c r="K4" s="30">
+        <v>71</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29">
         <v>142200</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>46</v>
+      <c r="A5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="2">
         <v>42737</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="30">
+      <c r="E5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="29">
         <v>17800</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>30</v>
+      <c r="H5" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30">
+        <v>25</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+      <c r="K5" s="29">
         <v>160200</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>46</v>
+      <c r="A6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>42737</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="E6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="29">
         <v>86500</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>71</v>
+      <c r="G6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="31">
-        <v>0</v>
-      </c>
-      <c r="K6" s="30">
+        <v>72</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
         <v>605500</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
+      <c r="A7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="2">
         <v>42740</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="E7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="29">
         <v>3500</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>72</v>
+      <c r="G7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="31">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
+        <v>73</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
         <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>49</v>
+      <c r="A8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="2">
         <v>42740</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="E8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="29">
         <v>46300</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>71</v>
+      <c r="G8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="31">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
+        <v>72</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
         <v>324100</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>49</v>
+      <c r="A9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <v>42740</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="E9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="29">
         <v>104500</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>73</v>
+      <c r="G9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30">
+        <v>74</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
         <v>836000</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>43</v>
+      <c r="A10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="2">
         <v>42740</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="30">
+      <c r="E10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="29">
         <v>79800</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>74</v>
+      <c r="G10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="31">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30">
+        <v>75</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
         <v>79800</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>43</v>
+      <c r="A11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D11" s="2">
         <v>42740</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="E11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="29">
         <v>89300</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>73</v>
+      <c r="G11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
+        <v>74</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29">
         <v>714400</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>43</v>
+      <c r="A12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="2">
         <v>42740</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="E12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="29">
         <v>4100</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>71</v>
+      <c r="G12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30">
+        <v>72</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
         <v>28700</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>54</v>
+      <c r="A13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="2">
         <v>42741</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="E13" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="29">
         <v>79500</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>72</v>
+      <c r="G13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30">
+        <v>73</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
         <v>159000</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>54</v>
+      <c r="A14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="D14" s="2">
         <v>42741</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="30">
+      <c r="E14" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="29">
         <v>165300</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>70</v>
+      <c r="G14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="31">
-        <v>0</v>
-      </c>
-      <c r="K14" s="30">
+        <v>71</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
         <v>495900</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>54</v>
+      <c r="A15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="D15" s="2">
         <v>42741</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="30">
+      <c r="E15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="29">
         <v>3600</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>73</v>
+      <c r="G15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="31">
-        <v>0</v>
-      </c>
-      <c r="K15" s="30">
+        <v>74</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
         <v>28800</v>
       </c>
     </row>

--- a/source/PART 01/CHAPTER 02/테이블-데이터형식.xlsx
+++ b/source/PART 01/CHAPTER 02/테이블-데이터형식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3F2C37-06F2-43B6-9E8F-DD1B8BD31F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62297BC-903C-4FA4-BD5D-65570F6D8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
   <si>
     <t>고객</t>
   </si>
@@ -49,9 +49,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9 EA</t>
-  </si>
-  <si>
     <t>사번</t>
   </si>
   <si>
@@ -103,12 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 </t>
-  </si>
-  <si>
     <t>박지훈</t>
   </si>
   <si>
@@ -217,51 +208,6 @@
   <si>
     <t>거래번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 EA</t>
-  </si>
-  <si>
-    <t>7 EA</t>
-  </si>
-  <si>
-    <t>2 EA</t>
-  </si>
-  <si>
-    <t>8 EA</t>
-  </si>
-  <si>
-    <t>1 EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 </t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>거래번호</t>
@@ -973,31 +919,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
@@ -1005,13 +951,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="9">
         <v>42</v>
@@ -1020,10 +966,10 @@
         <v>37755</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="11"/>
     </row>
@@ -1032,13 +978,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="14">
         <v>35</v>
@@ -1047,10 +993,10 @@
         <v>39372</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="16" t="b">
         <v>1</v>
@@ -1061,13 +1007,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="19">
         <v>33</v>
@@ -1076,10 +1022,10 @@
         <v>41030</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="21"/>
     </row>
@@ -1098,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
@@ -1118,7 +1064,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1130,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1150,13 +1096,13 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1">
         <v>42736</v>
@@ -1165,7 +1111,7 @@
         <v>42736</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" s="29">
         <v>1176000</v>
@@ -1182,13 +1128,13 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>42736</v>
@@ -1197,7 +1143,7 @@
         <v>42736</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" s="29">
         <v>48300</v>
@@ -1214,13 +1160,13 @@
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
         <v>42736</v>
@@ -1229,7 +1175,7 @@
         <v>42736</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="29">
         <v>47400</v>
@@ -1246,13 +1192,13 @@
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>42737</v>
@@ -1261,7 +1207,7 @@
         <v>42737</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5" s="29">
         <v>17800</v>
@@ -1278,13 +1224,13 @@
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>42737</v>
@@ -1293,7 +1239,7 @@
         <v>42737</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6" s="29">
         <v>86500</v>
@@ -1310,13 +1256,13 @@
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>42740</v>
@@ -1325,7 +1271,7 @@
         <v>42740</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7" s="29">
         <v>3500</v>
@@ -1342,13 +1288,13 @@
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>42740</v>
@@ -1357,7 +1303,7 @@
         <v>42740</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" s="29">
         <v>46300</v>
@@ -1374,13 +1320,13 @@
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>42740</v>
@@ -1389,7 +1335,7 @@
         <v>42740</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G9" s="29">
         <v>104500</v>
@@ -1406,13 +1352,13 @@
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>42740</v>
@@ -1421,7 +1367,7 @@
         <v>42740</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G10" s="29">
         <v>79800</v>
@@ -1438,13 +1384,13 @@
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>42740</v>
@@ -1453,7 +1399,7 @@
         <v>42740</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G11" s="29">
         <v>89300</v>
@@ -1470,13 +1416,13 @@
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>42740</v>
@@ -1485,7 +1431,7 @@
         <v>42740</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G12" s="29">
         <v>4100</v>
@@ -1502,13 +1448,13 @@
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
         <v>42741</v>
@@ -1517,7 +1463,7 @@
         <v>42741</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G13" s="29">
         <v>79500</v>
@@ -1534,13 +1480,13 @@
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
         <v>42741</v>
@@ -1549,7 +1495,7 @@
         <v>42741</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="29">
         <v>165300</v>
@@ -1566,13 +1512,13 @@
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>42741</v>
@@ -1581,7 +1527,7 @@
         <v>42741</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="29">
         <v>3600</v>
@@ -1607,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -1625,7 +1571,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1646,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>6</v>
@@ -1660,31 +1606,31 @@
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <v>42736</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="29">
         <v>1176000</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>71</v>
+      <c r="G2" s="22">
+        <v>3</v>
+      </c>
+      <c r="H2" s="24">
+        <v>3</v>
+      </c>
+      <c r="I2" s="23">
+        <v>3</v>
       </c>
       <c r="J2" s="30">
         <v>0.15</v>
@@ -1695,31 +1641,31 @@
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
         <v>42736</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="29">
         <v>48300</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>71</v>
+      <c r="G3" s="22">
+        <v>3</v>
+      </c>
+      <c r="H3" s="24">
+        <v>3</v>
+      </c>
+      <c r="I3" s="23">
+        <v>3</v>
       </c>
       <c r="J3" s="30">
         <v>0</v>
@@ -1730,31 +1676,31 @@
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
         <v>42736</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="29">
         <v>47400</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>71</v>
+      <c r="G4" s="22">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23">
+        <v>3</v>
       </c>
       <c r="J4" s="30">
         <v>0</v>
@@ -1765,31 +1711,31 @@
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>42737</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" s="29">
         <v>17800</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>25</v>
+      <c r="G5" s="22">
+        <v>9</v>
+      </c>
+      <c r="H5" s="24">
+        <v>9</v>
+      </c>
+      <c r="I5" s="23">
+        <v>9</v>
       </c>
       <c r="J5" s="30">
         <v>0</v>
@@ -1800,31 +1746,31 @@
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
         <v>42737</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="29">
         <v>86500</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>72</v>
+      <c r="G6" s="22">
+        <v>7</v>
+      </c>
+      <c r="H6" s="24">
+        <v>7</v>
+      </c>
+      <c r="I6" s="23">
+        <v>7</v>
       </c>
       <c r="J6" s="30">
         <v>0</v>
@@ -1835,31 +1781,31 @@
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
         <v>42740</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F7" s="29">
         <v>3500</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>73</v>
+      <c r="G7" s="22">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24">
+        <v>2</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
       </c>
       <c r="J7" s="30">
         <v>0</v>
@@ -1870,31 +1816,31 @@
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>42740</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="29">
         <v>46300</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>72</v>
+      <c r="G8" s="22">
+        <v>7</v>
+      </c>
+      <c r="H8" s="24">
+        <v>7</v>
+      </c>
+      <c r="I8" s="23">
+        <v>7</v>
       </c>
       <c r="J8" s="30">
         <v>0</v>
@@ -1905,31 +1851,31 @@
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>42740</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="29">
         <v>104500</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>74</v>
+      <c r="G9" s="22">
+        <v>8</v>
+      </c>
+      <c r="H9" s="24">
+        <v>8</v>
+      </c>
+      <c r="I9" s="23">
+        <v>8</v>
       </c>
       <c r="J9" s="30">
         <v>0</v>
@@ -1940,31 +1886,31 @@
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <v>42740</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="29">
         <v>79800</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>75</v>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
       </c>
       <c r="J10" s="30">
         <v>0</v>
@@ -1975,31 +1921,31 @@
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>42740</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11" s="29">
         <v>89300</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>74</v>
+      <c r="G11" s="22">
+        <v>8</v>
+      </c>
+      <c r="H11" s="24">
+        <v>8</v>
+      </c>
+      <c r="I11" s="23">
+        <v>8</v>
       </c>
       <c r="J11" s="30">
         <v>0</v>
@@ -2010,31 +1956,31 @@
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2">
         <v>42740</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="29">
         <v>4100</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>72</v>
+      <c r="G12" s="22">
+        <v>7</v>
+      </c>
+      <c r="H12" s="24">
+        <v>7</v>
+      </c>
+      <c r="I12" s="23">
+        <v>7</v>
       </c>
       <c r="J12" s="30">
         <v>0</v>
@@ -2045,31 +1991,31 @@
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>42741</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F13" s="29">
         <v>79500</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>73</v>
+      <c r="G13" s="22">
+        <v>2</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2</v>
+      </c>
+      <c r="I13" s="23">
+        <v>2</v>
       </c>
       <c r="J13" s="30">
         <v>0</v>
@@ -2080,31 +2026,31 @@
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
         <v>42741</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="29">
         <v>165300</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>71</v>
+      <c r="G14" s="22">
+        <v>3</v>
+      </c>
+      <c r="H14" s="24">
+        <v>3</v>
+      </c>
+      <c r="I14" s="23">
+        <v>3</v>
       </c>
       <c r="J14" s="30">
         <v>0</v>
@@ -2115,31 +2061,31 @@
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>42741</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="29">
         <v>3600</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>74</v>
+      <c r="G15" s="22">
+        <v>8</v>
+      </c>
+      <c r="H15" s="24">
+        <v>8</v>
+      </c>
+      <c r="I15" s="23">
+        <v>8</v>
       </c>
       <c r="J15" s="30">
         <v>0</v>
